--- a/database/not_sensitive/mb/mb.xlsx
+++ b/database/not_sensitive/mb/mb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25630"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6DAB84-BDD2-4F34-B6C2-EE92C702C2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED3DD15-693F-402F-A2E5-61328F495CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
     <t>Crosshair VIII</t>
   </si>
   <si>
-    <t>./img/img/database_img_elements/asusurog_imgs/asusrog_default_img.png</t>
+    <t>./img/img/database_img_elements/asusrog_imgs/asusrog_default_img.png</t>
   </si>
   <si>
     <t>Dark Hero</t>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J687"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="J189" sqref="J189:J286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7776,7 +7776,7 @@
       <c r="I189" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J189" s="3" t="s">
+      <c r="J189" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -7808,7 +7808,7 @@
       <c r="I190" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J190" s="3" t="s">
+      <c r="J190" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -7840,7 +7840,7 @@
       <c r="I191" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J191" s="3" t="s">
+      <c r="J191" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -7872,7 +7872,7 @@
       <c r="I192" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J192" s="3" t="s">
+      <c r="J192" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -7904,7 +7904,7 @@
       <c r="I193" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J193" s="3" t="s">
+      <c r="J193" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -7936,7 +7936,7 @@
       <c r="I194" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J194" s="3" t="s">
+      <c r="J194" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -7968,7 +7968,7 @@
       <c r="I195" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J195" s="3" t="s">
+      <c r="J195" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8000,7 +8000,7 @@
       <c r="I196" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J196" s="3" t="s">
+      <c r="J196" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8032,7 +8032,7 @@
       <c r="I197" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J197" s="3" t="s">
+      <c r="J197" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8064,7 +8064,7 @@
       <c r="I198" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J198" s="3" t="s">
+      <c r="J198" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8096,7 +8096,7 @@
       <c r="I199" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J199" s="3" t="s">
+      <c r="J199" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
       <c r="I200" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J200" s="3" t="s">
+      <c r="J200" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8160,7 +8160,7 @@
       <c r="I201" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J201" s="3" t="s">
+      <c r="J201" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8192,7 +8192,7 @@
       <c r="I202" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J202" s="3" t="s">
+      <c r="J202" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8224,7 +8224,7 @@
       <c r="I203" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J203" s="3" t="s">
+      <c r="J203" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
       <c r="I204" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J204" s="3" t="s">
+      <c r="J204" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8288,7 +8288,7 @@
       <c r="I205" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J205" s="3" t="s">
+      <c r="J205" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8320,7 +8320,7 @@
       <c r="I206" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J206" s="3" t="s">
+      <c r="J206" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8352,7 +8352,7 @@
       <c r="I207" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J207" s="3" t="s">
+      <c r="J207" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8384,7 +8384,7 @@
       <c r="I208" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J208" s="3" t="s">
+      <c r="J208" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
       <c r="I209" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J209" s="3" t="s">
+      <c r="J209" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8448,7 +8448,7 @@
       <c r="I210" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J210" s="3" t="s">
+      <c r="J210" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8480,7 +8480,7 @@
       <c r="I211" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J211" s="3" t="s">
+      <c r="J211" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8512,7 +8512,7 @@
       <c r="I212" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J212" s="3" t="s">
+      <c r="J212" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8544,7 +8544,7 @@
       <c r="I213" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J213" s="3" t="s">
+      <c r="J213" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8576,7 +8576,7 @@
       <c r="I214" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J214" s="3" t="s">
+      <c r="J214" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
       <c r="I215" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J215" s="3" t="s">
+      <c r="J215" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8640,7 +8640,7 @@
       <c r="I216" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J216" s="3" t="s">
+      <c r="J216" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8672,7 +8672,7 @@
       <c r="I217" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J217" s="3" t="s">
+      <c r="J217" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8704,7 +8704,7 @@
       <c r="I218" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J218" s="3" t="s">
+      <c r="J218" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8736,7 +8736,7 @@
       <c r="I219" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J219" s="3" t="s">
+      <c r="J219" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8768,7 +8768,7 @@
       <c r="I220" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J220" s="3" t="s">
+      <c r="J220" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       <c r="I221" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J221" s="3" t="s">
+      <c r="J221" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8832,7 +8832,7 @@
       <c r="I222" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J222" s="3" t="s">
+      <c r="J222" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8864,7 +8864,7 @@
       <c r="I223" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J223" s="3" t="s">
+      <c r="J223" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8896,7 +8896,7 @@
       <c r="I224" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J224" s="3" t="s">
+      <c r="J224" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8928,7 +8928,7 @@
       <c r="I225" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J225" s="3" t="s">
+      <c r="J225" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8960,7 +8960,7 @@
       <c r="I226" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J226" s="3" t="s">
+      <c r="J226" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -8992,7 +8992,7 @@
       <c r="I227" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J227" s="3" t="s">
+      <c r="J227" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9024,7 +9024,7 @@
       <c r="I228" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J228" s="3" t="s">
+      <c r="J228" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9056,7 +9056,7 @@
       <c r="I229" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J229" s="3" t="s">
+      <c r="J229" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9088,7 +9088,7 @@
       <c r="I230" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J230" s="3" t="s">
+      <c r="J230" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9120,7 +9120,7 @@
       <c r="I231" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J231" s="3" t="s">
+      <c r="J231" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9152,7 +9152,7 @@
       <c r="I232" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J232" s="3" t="s">
+      <c r="J232" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9184,7 +9184,7 @@
       <c r="I233" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J233" s="3" t="s">
+      <c r="J233" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       <c r="I234" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J234" s="3" t="s">
+      <c r="J234" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9248,7 +9248,7 @@
       <c r="I235" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J235" s="3" t="s">
+      <c r="J235" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9280,7 +9280,7 @@
       <c r="I236" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J236" s="3" t="s">
+      <c r="J236" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9312,7 +9312,7 @@
       <c r="I237" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J237" s="3" t="s">
+      <c r="J237" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9344,7 +9344,7 @@
       <c r="I238" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J238" s="3" t="s">
+      <c r="J238" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9376,7 +9376,7 @@
       <c r="I239" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J239" s="3" t="s">
+      <c r="J239" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9408,7 +9408,7 @@
       <c r="I240" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J240" s="3" t="s">
+      <c r="J240" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9440,7 +9440,7 @@
       <c r="I241" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J241" s="3" t="s">
+      <c r="J241" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9472,7 +9472,7 @@
       <c r="I242" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J242" s="3" t="s">
+      <c r="J242" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9504,7 +9504,7 @@
       <c r="I243" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J243" s="3" t="s">
+      <c r="J243" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9536,7 +9536,7 @@
       <c r="I244" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J244" s="3" t="s">
+      <c r="J244" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9568,7 +9568,7 @@
       <c r="I245" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J245" s="3" t="s">
+      <c r="J245" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9600,7 +9600,7 @@
       <c r="I246" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J246" s="3" t="s">
+      <c r="J246" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9632,7 +9632,7 @@
       <c r="I247" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J247" s="3" t="s">
+      <c r="J247" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9664,7 +9664,7 @@
       <c r="I248" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J248" s="3" t="s">
+      <c r="J248" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9696,7 +9696,7 @@
       <c r="I249" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J249" s="3" t="s">
+      <c r="J249" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9728,7 +9728,7 @@
       <c r="I250" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J250" s="3" t="s">
+      <c r="J250" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9760,7 +9760,7 @@
       <c r="I251" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J251" s="3" t="s">
+      <c r="J251" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9792,7 +9792,7 @@
       <c r="I252" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J252" s="3" t="s">
+      <c r="J252" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9824,7 +9824,7 @@
       <c r="I253" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J253" s="3" t="s">
+      <c r="J253" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9856,7 +9856,7 @@
       <c r="I254" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J254" s="3" t="s">
+      <c r="J254" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9886,7 +9886,7 @@
       <c r="I255" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J255" s="3" t="s">
+      <c r="J255" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       <c r="I256" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J256" s="3" t="s">
+      <c r="J256" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9950,7 +9950,7 @@
       <c r="I257" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J257" s="3" t="s">
+      <c r="J257" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9982,7 +9982,7 @@
       <c r="I258" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J258" s="3" t="s">
+      <c r="J258" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10012,7 +10012,7 @@
       <c r="I259" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="J259" s="3" t="s">
+      <c r="J259" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10044,7 +10044,7 @@
       <c r="I260" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J260" s="3" t="s">
+      <c r="J260" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10076,7 +10076,7 @@
       <c r="I261" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J261" s="3" t="s">
+      <c r="J261" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
       <c r="I262" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J262" s="3" t="s">
+      <c r="J262" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10140,7 +10140,7 @@
       <c r="I263" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J263" s="3" t="s">
+      <c r="J263" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10172,7 +10172,7 @@
       <c r="I264" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J264" s="3" t="s">
+      <c r="J264" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10204,7 +10204,7 @@
       <c r="I265" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J265" s="3" t="s">
+      <c r="J265" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10236,7 +10236,7 @@
       <c r="I266" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J266" s="3" t="s">
+      <c r="J266" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10268,7 +10268,7 @@
       <c r="I267" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J267" s="3" t="s">
+      <c r="J267" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10300,7 +10300,7 @@
       <c r="I268" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J268" s="3" t="s">
+      <c r="J268" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10332,7 +10332,7 @@
       <c r="I269" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J269" s="3" t="s">
+      <c r="J269" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       <c r="I270" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J270" s="3" t="s">
+      <c r="J270" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10396,7 +10396,7 @@
       <c r="I271" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J271" s="3" t="s">
+      <c r="J271" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10428,7 +10428,7 @@
       <c r="I272" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J272" s="3" t="s">
+      <c r="J272" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10460,7 +10460,7 @@
       <c r="I273" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J273" s="3" t="s">
+      <c r="J273" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10492,7 +10492,7 @@
       <c r="I274" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J274" s="3" t="s">
+      <c r="J274" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10524,7 +10524,7 @@
       <c r="I275" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J275" s="3" t="s">
+      <c r="J275" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       <c r="I276" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J276" s="3" t="s">
+      <c r="J276" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10588,7 +10588,7 @@
       <c r="I277" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J277" s="3" t="s">
+      <c r="J277" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10620,7 +10620,7 @@
       <c r="I278" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J278" s="3" t="s">
+      <c r="J278" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10652,7 +10652,7 @@
       <c r="I279" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J279" s="3" t="s">
+      <c r="J279" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10684,7 +10684,7 @@
       <c r="I280" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J280" s="3" t="s">
+      <c r="J280" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10716,7 +10716,7 @@
       <c r="I281" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J281" s="3" t="s">
+      <c r="J281" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10748,7 +10748,7 @@
       <c r="I282" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J282" s="3" t="s">
+      <c r="J282" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10780,7 +10780,7 @@
       <c r="I283" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J283" s="3" t="s">
+      <c r="J283" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10812,7 +10812,7 @@
       <c r="I284" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J284" s="3" t="s">
+      <c r="J284" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10844,7 +10844,7 @@
       <c r="I285" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J285" s="3" t="s">
+      <c r="J285" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -10876,7 +10876,7 @@
       <c r="I286" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J286" s="3" t="s">
+      <c r="J286" s="5" t="s">
         <v>179</v>
       </c>
     </row>
